--- a/Time-Logs/Time Log Bobby Spatz.xlsx
+++ b/Time-Logs/Time Log Bobby Spatz.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bobby\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69093890-EDEA-42D5-ADC5-2B42A7294ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A41C0F-AA18-42DD-83FD-4A6BEA5AFDFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F2173EE4-C147-4CED-96AD-196F2B72CD9E}"/>
+    <workbookView xWindow="7368" yWindow="2148" windowWidth="12012" windowHeight="9372" xr2:uid="{F2173EE4-C147-4CED-96AD-196F2B72CD9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -49,6 +49,15 @@
   </si>
   <si>
     <t>Did research on studies and filled out more project proposal things.</t>
+  </si>
+  <si>
+    <t>Filled out the overleaf doc a bit.</t>
+  </si>
+  <si>
+    <t>Filled out the overleaf doc more, and worked on the progress report</t>
+  </si>
+  <si>
+    <t>Added another related work to the overleaf document</t>
   </si>
 </sst>
 </file>
@@ -422,16 +431,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21A313E4-319D-4EE9-A866-657DD8B8686E}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
   </cols>
@@ -488,6 +497,48 @@
         <v>7</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45715</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45728</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45728</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Time-Logs/Time Log Bobby Spatz.xlsx
+++ b/Time-Logs/Time Log Bobby Spatz.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bobby\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A41C0F-AA18-42DD-83FD-4A6BEA5AFDFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377EB832-34E9-4A17-9BD0-3E7E8782309A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7368" yWindow="2148" windowWidth="12012" windowHeight="9372" xr2:uid="{F2173EE4-C147-4CED-96AD-196F2B72CD9E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{F2173EE4-C147-4CED-96AD-196F2B72CD9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -58,6 +58,24 @@
   </si>
   <si>
     <t>Added another related work to the overleaf document</t>
+  </si>
+  <si>
+    <t>Turned the questionaires into google form</t>
+  </si>
+  <si>
+    <t>Practiced with eye tracker</t>
+  </si>
+  <si>
+    <t>did pilot study</t>
+  </si>
+  <si>
+    <t>conducted study</t>
+  </si>
+  <si>
+    <t>attempted to attend writing center meeting (I couldn’t join)</t>
+  </si>
+  <si>
+    <t>worked on overleaf and presentation</t>
   </si>
 </sst>
 </file>
@@ -431,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21A313E4-319D-4EE9-A866-657DD8B8686E}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -539,6 +557,146 @@
         <v>10</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45745</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45763</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45764</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45770</v>
+      </c>
+      <c r="B12" s="2">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45777</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>45784</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>45784</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>45789</v>
+      </c>
+      <c r="B16" s="2">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C16" s="2">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>45790</v>
+      </c>
+      <c r="B17" s="2">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>45791</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Time-Logs/Time Log Bobby Spatz.xlsx
+++ b/Time-Logs/Time Log Bobby Spatz.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bobby\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bobby\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377EB832-34E9-4A17-9BD0-3E7E8782309A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7771336A-DF11-4C8B-B7F2-51CD5CB656BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{F2173EE4-C147-4CED-96AD-196F2B72CD9E}"/>
+    <workbookView xWindow="6732" yWindow="2628" windowWidth="10488" windowHeight="9372" xr2:uid="{F2173EE4-C147-4CED-96AD-196F2B72CD9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -449,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21A313E4-319D-4EE9-A866-657DD8B8686E}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -697,6 +697,20 @@
         <v>16</v>
       </c>
     </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>45792</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
